--- a/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_GTGT.xlsx
+++ b/API/wwwroot/docs/Template/ImportHoaDon/Hoa_Don_GTGT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\BKSoft\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\bill-back-end\API\wwwroot\docs\Template\ImportHoaDon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8BF885-AC29-4BAE-A41D-16BBFBA924A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127E5459-3DC8-4D74-91CE-47049F07D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hóa đơn GTGT" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Số hóa đơn</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Tỷ giá</t>
   </si>
   <si>
-    <t>Mã hàng (*)</t>
-  </si>
-  <si>
     <t>ĐVT</t>
   </si>
   <si>
@@ -97,9 +94,6 @@
     <t>Tính chất (*)</t>
   </si>
   <si>
-    <t>STT</t>
-  </si>
-  <si>
     <t>Thuế suất</t>
   </si>
   <si>
@@ -110,6 +104,9 @@
   </si>
   <si>
     <t>Hình thức thanh toán</t>
+  </si>
+  <si>
+    <t>Mã hàng</t>
   </si>
 </sst>
 </file>
@@ -121,7 +118,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.000000\ _₫;[Red]#,##0.000000\ _₫"/>
     <numFmt numFmtId="166" formatCode="0.0000;[Red]0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -158,19 +155,18 @@
       <family val="1"/>
       <charset val="163"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="22"/>
-        <bgColor indexed="31"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -224,10 +220,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,18 +247,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection hidden="1"/>
@@ -276,10 +273,6 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -289,12 +282,13 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent 2" xfId="1" xr:uid="{588ACE50-819F-4B7A-BBFC-B1258C4CE528}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -657,53 +651,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:HE1"/>
+  <dimension ref="A1:HD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" style="3" customWidth="1"/>
     <col min="5" max="5" width="24" style="3" customWidth="1"/>
-    <col min="6" max="6" width="22.109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="28.5546875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="38.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="28.88671875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="28.5703125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="30" style="3" customWidth="1"/>
     <col min="12" max="14" width="28" style="3" customWidth="1"/>
-    <col min="15" max="15" width="23.5546875" style="3" customWidth="1"/>
+    <col min="15" max="15" width="23.5703125" style="3" customWidth="1"/>
     <col min="16" max="16" width="12" style="1" customWidth="1"/>
     <col min="17" max="17" width="21" style="14" customWidth="1"/>
-    <col min="18" max="18" width="17.88671875" style="3" customWidth="1"/>
-    <col min="19" max="19" width="12.109375" style="3" customWidth="1"/>
-    <col min="20" max="20" width="23.33203125" style="3" customWidth="1"/>
-    <col min="21" max="21" width="34.6640625" style="3" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" style="4" customWidth="1"/>
-    <col min="23" max="23" width="19.88671875" style="17" customWidth="1"/>
-    <col min="24" max="24" width="23.44140625" style="16" customWidth="1"/>
-    <col min="25" max="25" width="23.44140625" style="18" customWidth="1"/>
-    <col min="26" max="26" width="23.44140625" style="16" customWidth="1"/>
-    <col min="27" max="27" width="21.6640625" style="19" customWidth="1"/>
-    <col min="28" max="28" width="19.109375" style="5" customWidth="1"/>
-    <col min="29" max="213" width="9" style="6" customWidth="1"/>
-    <col min="214" max="16384" width="9.109375" style="7"/>
+    <col min="18" max="18" width="17.85546875" style="3" customWidth="1"/>
+    <col min="19" max="19" width="23.28515625" style="3" customWidth="1"/>
+    <col min="20" max="20" width="34.7109375" style="3" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" style="4" customWidth="1"/>
+    <col min="22" max="22" width="19.85546875" style="16" customWidth="1"/>
+    <col min="23" max="23" width="23.42578125" style="15" customWidth="1"/>
+    <col min="24" max="24" width="23.42578125" style="17" customWidth="1"/>
+    <col min="25" max="25" width="23.42578125" style="15" customWidth="1"/>
+    <col min="26" max="26" width="21.7109375" style="15" customWidth="1"/>
+    <col min="27" max="27" width="19.140625" style="5" customWidth="1"/>
+    <col min="28" max="212" width="9" style="6" customWidth="1"/>
+    <col min="213" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:77" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>0</v>
@@ -721,22 +714,22 @@
         <v>3</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>21</v>
-      </c>
       <c r="N1" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>5</v>
@@ -748,16 +741,16 @@
         <v>7</v>
       </c>
       <c r="R1" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="S1" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="T1" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>8</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>22</v>
       </c>
       <c r="V1" s="10" t="s">
         <v>9</v>
@@ -766,23 +759,21 @@
         <v>10</v>
       </c>
       <c r="X1" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y1" s="10" t="s">
         <v>13</v>
       </c>
       <c r="Z1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="AA1" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="AC1" s="11" t="s">
-        <v>15</v>
-      </c>
+      <c r="AC1" s="11"/>
       <c r="AD1" s="11"/>
       <c r="AE1" s="11"/>
       <c r="AF1" s="11"/>
@@ -792,7 +783,7 @@
       <c r="AJ1" s="11"/>
       <c r="AK1" s="11"/>
       <c r="AL1" s="11"/>
-      <c r="AM1" s="11"/>
+      <c r="AM1" s="12"/>
       <c r="AN1" s="12"/>
       <c r="AO1" s="12"/>
       <c r="AP1" s="12"/>
@@ -831,13 +822,19 @@
       <c r="BW1" s="12"/>
       <c r="BX1" s="12"/>
       <c r="BY1" s="12"/>
-      <c r="BZ1" s="12"/>
+    </row>
+    <row r="2" spans="1:77" x14ac:dyDescent="0.25">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="U2" s="3"/>
+      <c r="AA2" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <dataValidations xWindow="159" yWindow="370" count="31">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="KETOANBACHKHOA" prompt="Nhập Tỷ lệ chiết khẩu_x000a_Nhập giá trị trong khoảng 0 - 100." sqref="Y1" xr:uid="{00000000-0002-0000-0000-000021000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOANBACHKHOA" prompt="Nhập Tiền chiết khấu_x000a_Tối đa 14 ký tự." sqref="Z1" xr:uid="{00000000-0002-0000-0000-000022000000}"/>
+  <dataValidations xWindow="159" yWindow="370" count="30">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="KETOANBACHKHOA" prompt="Nhập Tỷ lệ chiết khẩu_x000a_Nhập giá trị trong khoảng 0 - 100." sqref="X1" xr:uid="{00000000-0002-0000-0000-000021000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="KETOANBACHKHOA" prompt="Nhập Tiền chiết khấu_x000a_Tối đa 14 ký tự." sqref="Y1" xr:uid="{00000000-0002-0000-0000-000022000000}"/>
     <dataValidation operator="equal" showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET" error="Ngày chứng từ không được để trống!" promptTitle="HOADONBACHKHOA" prompt="Nhập Ngày chứng từ." sqref="C1:C1048576" xr:uid="{00000000-0002-0000-0000-000005000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số hóa đơn._x000a_Tối đa 8 ký tự." sqref="D1:D1048576" xr:uid="{00000000-0002-0000-0000-000006000000}"/>
     <dataValidation showInputMessage="1" errorTitle="MISA SME.NET 2012" error="Mã khách hàng không được để trống!" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã khách hàng." sqref="F1:F1048576" xr:uid="{00000000-0002-0000-0000-00000D000000}"/>
@@ -848,23 +845,19 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Email._x000a_Tối đa 50 ký tự." sqref="K1:K1048576" xr:uid="{00000000-0002-0000-0000-000012000000}"/>
     <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã nhân viên bán hàng." sqref="O1:O1048576" xr:uid="{00000000-0002-0000-0000-000013000000}"/>
     <dataValidation showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã loại tiền._x000a_Nếu để trống ngầm định là đồng tiền hạch toán._x000a_Tối đa 3 ký tự." sqref="P1:P1048576" xr:uid="{00000000-0002-0000-0000-000014000000}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số thứ tự._x000a_Tối đa 4 ký tự._x000a_" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000015000000}">
-      <formula1>1</formula1>
-      <formula2>99999999999999</formula2>
-    </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET 2012" error="Mã hàng không được để trống!" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã hàng._x000a_Tối đa 50 ký tự." sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tên mặt hàng_x000a_Tối đa 500 ký tự." sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Đơn vị tính._x000a_Tối đa 50 ký tự._x000a_" sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số lượng._x000a_Tối đa 21,6 ký tự." sqref="W1:W1048576" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 21,6 ký tự." sqref="Z1:Z1048576" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 21,6 ký tự." sqref="AA1:AA1048576" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Thuế suất thuế GTGT._x000a_Nhập 0: 0%._x000a_Nhập 5: 5%._x000a_Nhập 10: 10%._x000a_Nhập KCT: Không chịu thuế GTGT._x000a_Nhập KKKNT: Không kê khai, tính nộp thuế GTGT._x000a_Nhập KHAC:AB.CD%: Trường hợp khác. A, B, C, D là các số nguyên từ 0 đến 9._x000a_" sqref="AB1:AB1048576" xr:uid="{00000000-0002-0000-0000-000029000000}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="MISA SME.NET 2012" error="Mã hàng không được để trống!" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã hàng._x000a_Tối đa 50 ký tự." sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000016000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tên mặt hàng_x000a_Tối đa 500 ký tự." sqref="T1:T1048576" xr:uid="{00000000-0002-0000-0000-000017000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Đơn vị tính._x000a_Tối đa 50 ký tự._x000a_" sqref="U1:U1048576" xr:uid="{00000000-0002-0000-0000-00001B000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số lượng._x000a_Tối đa 21,6 ký tự." sqref="V1:V1048576" xr:uid="{00000000-0002-0000-0000-00001C000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tiền chiết khấu._x000a_Tối đa 21,6 ký tự." sqref="Y1:Y1048576" xr:uid="{00000000-0002-0000-0000-00001E000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Thành tiền_x000a_Tối đa 21,6 ký tự." sqref="Z1:Z1048576" xr:uid="{00000000-0002-0000-0000-00001F000000}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Thuế suất thuế GTGT._x000a_Nhập 0: 0%._x000a_Nhập 5: 5%._x000a_Nhập 10: 10%._x000a_Nhập KCT: Không chịu thuế GTGT._x000a_Nhập KKKNT: Không kê khai, tính nộp thuế GTGT._x000a_Nhập KHAC:AB.CD%: Trường hợp khác. A, B, C, D là các số nguyên từ 0 đến 9._x000a_" sqref="AA1:AA1048576" xr:uid="{00000000-0002-0000-0000-000029000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Ký hiệu hóa đơn._x000a_Tối đa 6 ký tự." sqref="B1:B1048576" xr:uid="{54FB8AA4-E8D3-4023-B8EA-35663C7EEE51}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Mã số thuế._x000a_Độ dài tối đa: 14 ký tự." sqref="E1:E1048576" xr:uid="{3489F7E3-51A2-46F1-8373-5DD97606F65F}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số điện thoại._x000a_Tối đa 20 ký tự." sqref="J1:J1048576" xr:uid="{FB8A0B47-5382-413F-854A-3F07AD2FFC04}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Số tài khoản ngân hàng._x000a_Tối đa 30 ký tự." sqref="L1:L1048576" xr:uid="{1D254E58-3DCA-430B-A4D4-70229E389F8D}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tên ngân hàng._x000a_Tối đa 400 ký tự." sqref="M1:M1048576" xr:uid="{EEE98E93-59DE-47AD-BD7A-7A86B93742FE}"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tính chất._x000a_Nhâp 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu thương mại._x000a_Nhập 4: Ghi chú/diễn giải._x000a_" sqref="R1:R1048576" xr:uid="{68F63C45-9E03-415A-B3CE-71283899B23E}">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tính chất._x000a_Nhâp 1: Hàng hóa, dịch vụ._x000a_Nhập 2: Khuyến mại._x000a_Nhập 3: Chiết khấu thương mại._x000a_Nhập 4: Ghi chú/diễn giải._x000a_Nếu bỏ trống mặc định là 1 (Hàng hóa, dịch vụ)." sqref="R1:R1048576" xr:uid="{68F63C45-9E03-415A-B3CE-71283899B23E}">
       <formula1>1</formula1>
       <formula2>99999999999999</formula2>
     </dataValidation>
@@ -872,8 +865,8 @@
       <formula1>1</formula1>
       <formula2>99999999999999</formula2>
     </dataValidation>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Đơn giá._x000a_Tối đa 21,6 ký tự." sqref="X1:X1048576" xr:uid="{F337B2AC-AA9C-4512-BAFB-8842BC56F0BB}"/>
-    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tỷ lệ chiết khấu._x000a_Tối đa 6,4 ký tự." sqref="Y1:Y1048576" xr:uid="{F2B1EE70-F836-48B1-966B-5E1F19C1D3EA}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Đơn giá._x000a_Tối đa 21,6 ký tự." sqref="W1:W1048576" xr:uid="{F337B2AC-AA9C-4512-BAFB-8842BC56F0BB}"/>
+    <dataValidation operator="equal" allowBlank="1" showInputMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Tỷ lệ chiết khấu._x000a_Tối đa 6,4 ký tự." sqref="X1:X1048576" xr:uid="{F2B1EE70-F836-48B1-966B-5E1F19C1D3EA}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Ký hiệu mẫu số hóa đơn._x000a_Nhập 1: Hóa đơn điện tử GTGT._x000a_Nhập 2: Hóa đơn điện tử bán hàng._x000a_Nhập 3: Hóa đơn điện tử bán tài sản công._x000a_Nhập 4: Hóa đơn điện tử bán hàng dự trữ quốc gia._x000a_Nhập 5: Các loại hóa đơn khác._x000a_Nhập 6: Các chứng từ được in, phát hành" sqref="A1:A1048576" xr:uid="{A0445548-328B-4281-9F71-C11C4DB73F5B}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="HOADONBACHKHOA" prompt="Nhập Hình thức thanh toán._x000a_Nhập 1: Tiền mặt._x000a_Nhập 2: Chuyển khoản._x000a_Nhập 3: Tiền mặt/Chuyển khoản._x000a_Nhập 4: Đối trừ công nợ._x000a_Nhập 5: Không thu tiền._x000a_Nhập 6: Khác._x000a_Nếu bỏ trống mặc định là 3 (Tiền mặt/Chuyển khoản)." sqref="N1:N1048576" xr:uid="{131859A6-72BB-4BC0-962A-F20192C58B27}"/>
   </dataValidations>
